--- a/data/trans_camb/P23_9_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_9_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>-1,65</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,33</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 7,04</t>
+          <t>-3,31; 12,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 10,67</t>
+          <t>-7,28; 6,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 9,31</t>
+          <t>-9,36; 5,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 12,5</t>
+          <t>-5,35; 10,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 6,18</t>
+          <t>-2,77; 12,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 9,04</t>
+          <t>-9,34; 7,52</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 8,96</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,63; 7,86</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-7,52; 3,73</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>-15,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,56%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>-9,77%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>22,32%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15,67%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-12,16%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-35,42; 62,27</t>
+          <t>-20,13; 139,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,98; 84,99</t>
+          <t>-45,64; 70,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 78,25</t>
+          <t>-59,59; 54,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 100,34</t>
+          <t>-25,91; 86,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 49,59</t>
+          <t>-13,53; 98,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 69,95</t>
+          <t>-45,94; 61,4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-12,13; 74,71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-21,07; 64,95</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-42,05; 30,37</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-2,14</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,87</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-2,13</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 4,11</t>
+          <t>-5,22; 15,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 1,8</t>
+          <t>-6,97; 9,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 12,13</t>
+          <t>-10,68; 6,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 11,3</t>
+          <t>-4,52; 12,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 5,77</t>
+          <t>-3,8; 13,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 4,62</t>
+          <t>-10,12; 6,12</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; 10,59</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 9,12</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-7,91; 3,86</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,71%</t>
+          <t>26,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-27,89%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>-14,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>30,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>-13,83%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>25,63%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19,83%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-14,11%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,48; 32,16</t>
+          <t>-29,55; 148,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,57; 15,02</t>
+          <t>-36,7; 96,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 93,8</t>
+          <t>-56,32; 65,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 91,16</t>
+          <t>-25,9; 112,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,12; 38,7</t>
+          <t>-20,52; 121,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 32,58</t>
+          <t>-53,03; 57,67</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-18,85; 86,49</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-14,96; 76,76</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-44,46; 32,07</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>24,81</t>
+          <t>40,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,6</t>
+          <t>31,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>13,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>17,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,06</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,25</t>
+          <t>4,91</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>29,39</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20,01</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,46</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,98; 44,64</t>
+          <t>12,95; 71,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 39,66</t>
+          <t>2,58; 70,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 20,69</t>
+          <t>-7,2; 38,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 21,26</t>
+          <t>0,7; 37,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 27,83</t>
+          <t>-6,6; 24,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 25,3</t>
+          <t>-9,23; 20,85</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13,12; 48,93</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,28; 48,58</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 23,04</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>400,86%</t>
+          <t>770,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>203,54%</t>
+          <t>594,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>42,97%</t>
+          <t>261,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>51,29%</t>
+          <t>206,56%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>151,14%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>56,39%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>419,46%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>285,62%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>135,03%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,02; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,25; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,31; 232,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,36; 228,16</t>
+          <t>-27,05; 1561,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,45; 427,34</t>
+          <t>-60,53; 1060,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 378,72</t>
+          <t>-84,59; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>61,44; 1727,11</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-9,52; 1949,85</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-49,67; 733,34</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6,19</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4,43</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 7,39</t>
+          <t>2,23; 16,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 6,04</t>
+          <t>-2,01; 11,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 8,73</t>
+          <t>-5,97; 5,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 9,86</t>
+          <t>-1,19; 10,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 6,59</t>
+          <t>-0,86; 10,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 6,43</t>
+          <t>-6,43; 4,29</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 10,87</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 9,38</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 2,99</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>64,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,34%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>-7,46%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>43,64%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>31,19%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-5,33%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 61,83</t>
+          <t>12,87; 157,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 50,03</t>
+          <t>-15,65; 109,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,36; 65,55</t>
+          <t>-39,07; 49,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,66; 71,58</t>
+          <t>-7,63; 75,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 47,28</t>
+          <t>-4,46; 81,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 45,17</t>
+          <t>-36,22; 32,57</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12,81; 89,45</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 73,5</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-29,76; 24,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
